--- a/documents/最終成果物フォルダ/DB_TABLE構築.xlsx
+++ b/documents/最終成果物フォルダ/DB_TABLE構築.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\F3\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\F3\documents\最終成果物フォルダ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10D3A6E-4F47-441E-A5BB-6561DF7E8116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E52EF5-E21B-400D-9951-5965EF9E7F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{3B64E8F6-D27E-42D4-A8B8-55BCB86F6C60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="7" xr2:uid="{3B64E8F6-D27E-42D4-A8B8-55BCB86F6C60}"/>
   </bookViews>
   <sheets>
     <sheet name="create table" sheetId="7" r:id="rId1"/>
@@ -956,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD01381-B82C-4E9F-824D-31E945C94E41}">
   <dimension ref="B3:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1478,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06D12B6-816B-4157-A7F3-0321E7F97F5D}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
